--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H2">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I2">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J2">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.17547212924119</v>
+        <v>2.249867</v>
       </c>
       <c r="N2">
-        <v>3.17547212924119</v>
+        <v>6.749601</v>
       </c>
       <c r="O2">
-        <v>0.02463946613427846</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="P2">
-        <v>0.02463946613427846</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="Q2">
-        <v>22.96387181890965</v>
+        <v>19.97405674151667</v>
       </c>
       <c r="R2">
-        <v>22.96387181890965</v>
+        <v>179.76651067365</v>
       </c>
       <c r="S2">
-        <v>0.000911519599404489</v>
+        <v>0.0004479584750201773</v>
       </c>
       <c r="T2">
-        <v>0.000911519599404489</v>
+        <v>0.0004479584750201773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H3">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I3">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J3">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.8690490316982</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N3">
-        <v>47.8690490316982</v>
+        <v>9.707891</v>
       </c>
       <c r="O3">
-        <v>0.3714306926631688</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="P3">
-        <v>0.3714306926631688</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="Q3">
-        <v>346.1717380337068</v>
+        <v>28.72850790357223</v>
       </c>
       <c r="R3">
-        <v>346.1717380337068</v>
+        <v>258.5565711321501</v>
       </c>
       <c r="S3">
-        <v>0.01374081541936696</v>
+        <v>0.0006442946846816728</v>
       </c>
       <c r="T3">
-        <v>0.01374081541936696</v>
+        <v>0.0006442946846816728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H4">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I4">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J4">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.8329517492171</v>
+        <v>48.69315599999999</v>
       </c>
       <c r="N4">
-        <v>77.8329517492171</v>
+        <v>146.079468</v>
       </c>
       <c r="O4">
-        <v>0.6039298412025528</v>
+        <v>0.3509195348041114</v>
       </c>
       <c r="P4">
-        <v>0.6039298412025528</v>
+        <v>0.3509195348041115</v>
       </c>
       <c r="Q4">
-        <v>562.8599006735748</v>
+        <v>432.2921580998</v>
       </c>
       <c r="R4">
-        <v>562.8599006735748</v>
+        <v>3890.6294228982</v>
       </c>
       <c r="S4">
-        <v>0.02234195675836985</v>
+        <v>0.0096950228194287</v>
       </c>
       <c r="T4">
-        <v>0.02234195675836985</v>
+        <v>0.009695022819428701</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>154.748462816361</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H5">
-        <v>154.748462816361</v>
+        <v>26.63365</v>
       </c>
       <c r="I5">
-        <v>0.7916336610130938</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J5">
-        <v>0.7916336610130938</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.17547212924119</v>
+        <v>84.46143499999999</v>
       </c>
       <c r="N5">
-        <v>3.17547212924119</v>
+        <v>253.384305</v>
       </c>
       <c r="O5">
-        <v>0.02463946613427846</v>
+        <v>0.6086926770383849</v>
       </c>
       <c r="P5">
-        <v>0.02463946613427846</v>
+        <v>0.608692677038385</v>
       </c>
       <c r="Q5">
-        <v>491.399430716271</v>
+        <v>749.8387660959168</v>
       </c>
       <c r="R5">
-        <v>491.399430716271</v>
+        <v>6748.54889486325</v>
       </c>
       <c r="S5">
-        <v>0.019505430781287</v>
+        <v>0.01681664543753734</v>
       </c>
       <c r="T5">
-        <v>0.019505430781287</v>
+        <v>0.01681664543753734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.748462816361</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H6">
-        <v>154.748462816361</v>
+        <v>26.63365</v>
       </c>
       <c r="I6">
-        <v>0.7916336610130938</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J6">
-        <v>0.7916336610130938</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>47.8690490316982</v>
+        <v>0.1183283333333333</v>
       </c>
       <c r="N6">
-        <v>47.8690490316982</v>
+        <v>0.354985</v>
       </c>
       <c r="O6">
-        <v>0.3714306926631688</v>
+        <v>0.0008527630389675126</v>
       </c>
       <c r="P6">
-        <v>0.3714306926631688</v>
+        <v>0.0008527630389675127</v>
       </c>
       <c r="Q6">
-        <v>7407.66175413631</v>
+        <v>1.050505138361111</v>
       </c>
       <c r="R6">
-        <v>7407.66175413631</v>
+        <v>9.45454624525</v>
       </c>
       <c r="S6">
-        <v>0.2940370390455736</v>
+        <v>2.355969475159163E-05</v>
       </c>
       <c r="T6">
-        <v>0.2940370390455736</v>
+        <v>2.355969475159163E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.748462816361</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H7">
-        <v>154.748462816361</v>
+        <v>466.172821</v>
       </c>
       <c r="I7">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J7">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>77.8329517492171</v>
+        <v>2.249867</v>
       </c>
       <c r="N7">
-        <v>77.8329517492171</v>
+        <v>6.749601</v>
       </c>
       <c r="O7">
-        <v>0.6039298412025528</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="P7">
-        <v>0.6039298412025528</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="Q7">
-        <v>12044.52963965134</v>
+        <v>349.6089487549357</v>
       </c>
       <c r="R7">
-        <v>12044.52963965134</v>
+        <v>3146.480538794421</v>
       </c>
       <c r="S7">
-        <v>0.4780911911862333</v>
+        <v>0.007840685223054821</v>
       </c>
       <c r="T7">
-        <v>0.4780911911862333</v>
+        <v>0.007840685223054821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.89880376558533</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H8">
-        <v>5.89880376558533</v>
+        <v>466.172821</v>
       </c>
       <c r="I8">
-        <v>0.03017601296685985</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J8">
-        <v>0.03017601296685985</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.17547212924119</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N8">
-        <v>3.17547212924119</v>
+        <v>9.707891</v>
       </c>
       <c r="O8">
-        <v>0.02463946613427846</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="P8">
-        <v>0.02463946613427846</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="Q8">
-        <v>18.7314869534792</v>
+        <v>502.8394370478346</v>
       </c>
       <c r="R8">
-        <v>18.7314869534792</v>
+        <v>4525.554933430511</v>
       </c>
       <c r="S8">
-        <v>0.0007435208495644907</v>
+        <v>0.01127718771979661</v>
       </c>
       <c r="T8">
-        <v>0.0007435208495644907</v>
+        <v>0.01127718771979661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.89880376558533</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H9">
-        <v>5.89880376558533</v>
+        <v>466.172821</v>
       </c>
       <c r="I9">
-        <v>0.03017601296685985</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J9">
-        <v>0.03017601296685985</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>47.8690490316982</v>
+        <v>48.69315599999999</v>
       </c>
       <c r="N9">
-        <v>47.8690490316982</v>
+        <v>146.079468</v>
       </c>
       <c r="O9">
-        <v>0.3714306926631688</v>
+        <v>0.3509195348041114</v>
       </c>
       <c r="P9">
-        <v>0.3714306926631688</v>
+        <v>0.3509195348041115</v>
       </c>
       <c r="Q9">
-        <v>282.3701266831702</v>
+        <v>7566.475298637692</v>
       </c>
       <c r="R9">
-        <v>282.3701266831702</v>
+        <v>68098.27768773922</v>
       </c>
       <c r="S9">
-        <v>0.01120829739809352</v>
+        <v>0.169693456863496</v>
       </c>
       <c r="T9">
-        <v>0.01120829739809352</v>
+        <v>0.169693456863496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.89880376558533</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H10">
-        <v>5.89880376558533</v>
+        <v>466.172821</v>
       </c>
       <c r="I10">
-        <v>0.03017601296685985</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J10">
-        <v>0.03017601296685985</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>77.8329517492171</v>
+        <v>84.46143499999999</v>
       </c>
       <c r="N10">
-        <v>77.8329517492171</v>
+        <v>253.384305</v>
       </c>
       <c r="O10">
-        <v>0.6039298412025528</v>
+        <v>0.6086926770383849</v>
       </c>
       <c r="P10">
-        <v>0.6039298412025528</v>
+        <v>0.608692677038385</v>
       </c>
       <c r="Q10">
-        <v>459.1213088649031</v>
+        <v>13124.54180655271</v>
       </c>
       <c r="R10">
-        <v>459.1213088649031</v>
+        <v>118120.8762589744</v>
       </c>
       <c r="S10">
-        <v>0.01822419471920184</v>
+        <v>0.2943442991619083</v>
       </c>
       <c r="T10">
-        <v>0.01822419471920184</v>
+        <v>0.2943442991619084</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.6621806104999</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H11">
-        <v>13.6621806104999</v>
+        <v>466.172821</v>
       </c>
       <c r="I11">
-        <v>0.06989046519283849</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J11">
-        <v>0.06989046519283849</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.17547212924119</v>
+        <v>0.1183283333333333</v>
       </c>
       <c r="N11">
-        <v>3.17547212924119</v>
+        <v>0.354985</v>
       </c>
       <c r="O11">
-        <v>0.02463946613427846</v>
+        <v>0.0008527630389675126</v>
       </c>
       <c r="P11">
-        <v>0.02463946613427846</v>
+        <v>0.0008527630389675127</v>
       </c>
       <c r="Q11">
-        <v>43.38387375330182</v>
+        <v>18.38715098474278</v>
       </c>
       <c r="R11">
-        <v>43.38387375330182</v>
+        <v>165.484358862685</v>
       </c>
       <c r="S11">
-        <v>0.001722063750227911</v>
+        <v>0.0004123689154227214</v>
       </c>
       <c r="T11">
-        <v>0.001722063750227911</v>
+        <v>0.0004123689154227214</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.6621806104999</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H12">
-        <v>13.6621806104999</v>
+        <v>18.026882</v>
       </c>
       <c r="I12">
-        <v>0.06989046519283849</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J12">
-        <v>0.06989046519283849</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>47.8690490316982</v>
+        <v>2.249867</v>
       </c>
       <c r="N12">
-        <v>47.8690490316982</v>
+        <v>6.749601</v>
       </c>
       <c r="O12">
-        <v>0.3714306926631688</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="P12">
-        <v>0.3714306926631688</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="Q12">
-        <v>653.9955935239361</v>
+        <v>13.51936230823133</v>
       </c>
       <c r="R12">
-        <v>653.9955935239361</v>
+        <v>121.674260774082</v>
       </c>
       <c r="S12">
-        <v>0.02595946389712709</v>
+        <v>0.0003031989445715733</v>
       </c>
       <c r="T12">
-        <v>0.02595946389712709</v>
+        <v>0.0003031989445715733</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.6621806104999</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H13">
-        <v>13.6621806104999</v>
+        <v>18.026882</v>
       </c>
       <c r="I13">
-        <v>0.06989046519283849</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J13">
-        <v>0.06989046519283849</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>77.8329517492171</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N13">
-        <v>77.8329517492171</v>
+        <v>9.707891</v>
       </c>
       <c r="O13">
-        <v>0.6039298412025528</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="P13">
-        <v>0.6039298412025528</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="Q13">
-        <v>1063.367844246128</v>
+        <v>19.44477839176244</v>
       </c>
       <c r="R13">
-        <v>1063.367844246128</v>
+        <v>175.003005525862</v>
       </c>
       <c r="S13">
-        <v>0.04220893754548349</v>
+        <v>0.000436088341402088</v>
       </c>
       <c r="T13">
-        <v>0.04220893754548349</v>
+        <v>0.0004360883414020881</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.9388049601407</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H14">
-        <v>13.9388049601407</v>
+        <v>18.026882</v>
       </c>
       <c r="I14">
-        <v>0.07130556905006635</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J14">
-        <v>0.07130556905006635</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.17547212924119</v>
+        <v>48.69315599999999</v>
       </c>
       <c r="N14">
-        <v>3.17547212924119</v>
+        <v>146.079468</v>
       </c>
       <c r="O14">
-        <v>0.02463946613427846</v>
+        <v>0.3509195348041114</v>
       </c>
       <c r="P14">
-        <v>0.02463946613427846</v>
+        <v>0.3509195348041115</v>
       </c>
       <c r="Q14">
-        <v>44.26228666585565</v>
+        <v>292.595259139864</v>
       </c>
       <c r="R14">
-        <v>44.26228666585565</v>
+        <v>2633.357332258776</v>
       </c>
       <c r="S14">
-        <v>0.001756931153794564</v>
+        <v>0.006562038336959015</v>
       </c>
       <c r="T14">
-        <v>0.001756931153794564</v>
+        <v>0.006562038336959016</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.9388049601407</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H15">
-        <v>13.9388049601407</v>
+        <v>18.026882</v>
       </c>
       <c r="I15">
-        <v>0.07130556905006635</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J15">
-        <v>0.07130556905006635</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.8690490316982</v>
+        <v>84.46143499999999</v>
       </c>
       <c r="N15">
-        <v>47.8690490316982</v>
+        <v>253.384305</v>
       </c>
       <c r="O15">
-        <v>0.3714306926631688</v>
+        <v>0.6086926770383849</v>
       </c>
       <c r="P15">
-        <v>0.3714306926631688</v>
+        <v>0.608692677038385</v>
       </c>
       <c r="Q15">
-        <v>667.2373380802533</v>
+        <v>507.5254407652233</v>
       </c>
       <c r="R15">
-        <v>667.2373380802533</v>
+        <v>4567.72896688701</v>
       </c>
       <c r="S15">
-        <v>0.02648507690300756</v>
+        <v>0.01138228079659844</v>
       </c>
       <c r="T15">
-        <v>0.02648507690300756</v>
+        <v>0.01138228079659844</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.008960666666667</v>
+      </c>
+      <c r="H16">
+        <v>18.026882</v>
+      </c>
+      <c r="I16">
+        <v>0.0186995527069248</v>
+      </c>
+      <c r="J16">
+        <v>0.0186995527069248</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1183283333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.354985</v>
+      </c>
+      <c r="O16">
+        <v>0.0008527630389675126</v>
+      </c>
+      <c r="P16">
+        <v>0.0008527630389675127</v>
+      </c>
+      <c r="Q16">
+        <v>0.7110303007522222</v>
+      </c>
+      <c r="R16">
+        <v>6.39927270677</v>
+      </c>
+      <c r="S16">
+        <v>1.594628739369037E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.594628739369037E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>13.9388049601407</v>
-      </c>
-      <c r="H16">
-        <v>13.9388049601407</v>
-      </c>
-      <c r="I16">
-        <v>0.07130556905006635</v>
-      </c>
-      <c r="J16">
-        <v>0.07130556905006635</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>77.8329517492171</v>
-      </c>
-      <c r="N16">
-        <v>77.8329517492171</v>
-      </c>
-      <c r="O16">
-        <v>0.6039298412025528</v>
-      </c>
-      <c r="P16">
-        <v>0.6039298412025528</v>
-      </c>
-      <c r="Q16">
-        <v>1084.898333904379</v>
-      </c>
-      <c r="R16">
-        <v>1084.898333904379</v>
-      </c>
-      <c r="S16">
-        <v>0.04306356099326424</v>
-      </c>
-      <c r="T16">
-        <v>0.04306356099326424</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>133.1709713333333</v>
+      </c>
+      <c r="H17">
+        <v>399.512914</v>
+      </c>
+      <c r="I17">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="J17">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>2.249867</v>
+      </c>
+      <c r="N17">
+        <v>6.749601</v>
+      </c>
+      <c r="O17">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="P17">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="Q17">
+        <v>299.6169737608127</v>
+      </c>
+      <c r="R17">
+        <v>2696.552763847314</v>
+      </c>
+      <c r="S17">
+        <v>0.006719514437799822</v>
+      </c>
+      <c r="T17">
+        <v>0.006719514437799822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>133.1709713333333</v>
+      </c>
+      <c r="H18">
+        <v>399.512914</v>
+      </c>
+      <c r="I18">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="J18">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.235963666666667</v>
+      </c>
+      <c r="N18">
+        <v>9.707891</v>
+      </c>
+      <c r="O18">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="P18">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="Q18">
+        <v>430.9364246893749</v>
+      </c>
+      <c r="R18">
+        <v>3878.427822204374</v>
+      </c>
+      <c r="S18">
+        <v>0.009664617765566727</v>
+      </c>
+      <c r="T18">
+        <v>0.009664617765566727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>133.1709713333333</v>
+      </c>
+      <c r="H19">
+        <v>399.512914</v>
+      </c>
+      <c r="I19">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="J19">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>48.69315599999999</v>
+      </c>
+      <c r="N19">
+        <v>146.079468</v>
+      </c>
+      <c r="O19">
+        <v>0.3509195348041114</v>
+      </c>
+      <c r="P19">
+        <v>0.3509195348041115</v>
+      </c>
+      <c r="Q19">
+        <v>6484.514881805528</v>
+      </c>
+      <c r="R19">
+        <v>58360.63393624975</v>
+      </c>
+      <c r="S19">
+        <v>0.1454283141021398</v>
+      </c>
+      <c r="T19">
+        <v>0.1454283141021398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>133.1709713333333</v>
+      </c>
+      <c r="H20">
+        <v>399.512914</v>
+      </c>
+      <c r="I20">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="J20">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.46143499999999</v>
+      </c>
+      <c r="N20">
+        <v>253.384305</v>
+      </c>
+      <c r="O20">
+        <v>0.6086926770383849</v>
+      </c>
+      <c r="P20">
+        <v>0.608692677038385</v>
+      </c>
+      <c r="Q20">
+        <v>11247.8113391572</v>
+      </c>
+      <c r="R20">
+        <v>101230.3020524148</v>
+      </c>
+      <c r="S20">
+        <v>0.2522548363613454</v>
+      </c>
+      <c r="T20">
+        <v>0.2522548363613454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>133.1709713333333</v>
+      </c>
+      <c r="H21">
+        <v>399.512914</v>
+      </c>
+      <c r="I21">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="J21">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1183283333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.354985</v>
+      </c>
+      <c r="O21">
+        <v>0.0008527630389675126</v>
+      </c>
+      <c r="P21">
+        <v>0.0008527630389675127</v>
+      </c>
+      <c r="Q21">
+        <v>15.75789908625444</v>
+      </c>
+      <c r="R21">
+        <v>141.82109177629</v>
+      </c>
+      <c r="S21">
+        <v>0.0003534026430158419</v>
+      </c>
+      <c r="T21">
+        <v>0.0003534026430158419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.89372566666666</v>
+      </c>
+      <c r="H22">
+        <v>53.681177</v>
+      </c>
+      <c r="I22">
+        <v>0.05568428298810961</v>
+      </c>
+      <c r="J22">
+        <v>0.05568428298810962</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>2.249867</v>
+      </c>
+      <c r="N22">
+        <v>6.749601</v>
+      </c>
+      <c r="O22">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="P22">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="Q22">
+        <v>40.25850288448633</v>
+      </c>
+      <c r="R22">
+        <v>362.326525960377</v>
+      </c>
+      <c r="S22">
+        <v>0.0009028780578782182</v>
+      </c>
+      <c r="T22">
+        <v>0.0009028780578782184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.89372566666666</v>
+      </c>
+      <c r="H23">
+        <v>53.681177</v>
+      </c>
+      <c r="I23">
+        <v>0.05568428298810961</v>
+      </c>
+      <c r="J23">
+        <v>0.05568428298810962</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.235963666666667</v>
+      </c>
+      <c r="N23">
+        <v>9.707891</v>
+      </c>
+      <c r="O23">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="P23">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="Q23">
+        <v>57.90344611863411</v>
+      </c>
+      <c r="R23">
+        <v>521.131015067707</v>
+      </c>
+      <c r="S23">
+        <v>0.001298601468764366</v>
+      </c>
+      <c r="T23">
+        <v>0.001298601468764366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.89372566666666</v>
+      </c>
+      <c r="H24">
+        <v>53.681177</v>
+      </c>
+      <c r="I24">
+        <v>0.05568428298810961</v>
+      </c>
+      <c r="J24">
+        <v>0.05568428298810962</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>48.69315599999999</v>
+      </c>
+      <c r="N24">
+        <v>146.079468</v>
+      </c>
+      <c r="O24">
+        <v>0.3509195348041114</v>
+      </c>
+      <c r="P24">
+        <v>0.3509195348041115</v>
+      </c>
+      <c r="Q24">
+        <v>871.3019753082039</v>
+      </c>
+      <c r="R24">
+        <v>7841.717777773835</v>
+      </c>
+      <c r="S24">
+        <v>0.01954070268208792</v>
+      </c>
+      <c r="T24">
+        <v>0.01954070268208792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.89372566666666</v>
+      </c>
+      <c r="H25">
+        <v>53.681177</v>
+      </c>
+      <c r="I25">
+        <v>0.05568428298810961</v>
+      </c>
+      <c r="J25">
+        <v>0.05568428298810962</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.46143499999999</v>
+      </c>
+      <c r="N25">
+        <v>253.384305</v>
+      </c>
+      <c r="O25">
+        <v>0.6086926770383849</v>
+      </c>
+      <c r="P25">
+        <v>0.608692677038385</v>
+      </c>
+      <c r="Q25">
+        <v>1511.329747302998</v>
+      </c>
+      <c r="R25">
+        <v>13601.96772572698</v>
+      </c>
+      <c r="S25">
+        <v>0.03389461528099543</v>
+      </c>
+      <c r="T25">
+        <v>0.03389461528099545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.89372566666666</v>
+      </c>
+      <c r="H26">
+        <v>53.681177</v>
+      </c>
+      <c r="I26">
+        <v>0.05568428298810961</v>
+      </c>
+      <c r="J26">
+        <v>0.05568428298810962</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.1183283333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.354985</v>
+      </c>
+      <c r="O26">
+        <v>0.0008527630389675126</v>
+      </c>
+      <c r="P26">
+        <v>0.0008527630389675127</v>
+      </c>
+      <c r="Q26">
+        <v>2.117334735260555</v>
+      </c>
+      <c r="R26">
+        <v>19.056012617345</v>
+      </c>
+      <c r="S26">
+        <v>4.748549838366731E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.748549838366733E-05</v>
       </c>
     </row>
   </sheetData>
